--- a/data/trans_dic/P57_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2438951316487408</v>
+        <v>0.2438013586304444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2617164999304133</v>
+        <v>0.2619124184217669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2968769902182416</v>
+        <v>0.2977051048369664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.301039715457192</v>
+        <v>0.3066701976635168</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2803783782256466</v>
+        <v>0.2798483861471762</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2986544384761489</v>
+        <v>0.2953879869252465</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2979533659891739</v>
+        <v>0.2970489440232417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3468347709602029</v>
+        <v>0.3458183299421235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3511785223662202</v>
+        <v>0.350268820245292</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3715816561417897</v>
+        <v>0.3716307071681063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3181465749625283</v>
+        <v>0.3214155390924155</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3504885465079894</v>
+        <v>0.3483456223372185</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.2156355882124488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2190247710476053</v>
+        <v>0.2190247710476054</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1942055183517694</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1458128140146987</v>
+        <v>0.1475291802744962</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.13455230998163</v>
+        <v>0.13386272447089</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1901191160790147</v>
+        <v>0.1880664136132695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1996774585429819</v>
+        <v>0.1989388655535471</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1764203633191172</v>
+        <v>0.1756200902632007</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1746397690575409</v>
+        <v>0.1752096340081406</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1965538336161171</v>
+        <v>0.197441930551531</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1779232001410063</v>
+        <v>0.1803332406483897</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2427112073184066</v>
+        <v>0.2419347747615708</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2399226473796786</v>
+        <v>0.2386091275828549</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2125875249572649</v>
+        <v>0.2145510541831682</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2052823327343832</v>
+        <v>0.2059057733347556</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.1270007267853327</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.08984022800264953</v>
+        <v>0.08984022800264956</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1718926125039437</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1034859308844855</v>
+        <v>0.1044783150236219</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07458132919494408</v>
+        <v>0.0736848947326252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1447771861036671</v>
+        <v>0.1451206527069663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1003491503303568</v>
+        <v>0.1014572481713836</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1319361010398281</v>
+        <v>0.1307312188895477</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09205721261493849</v>
+        <v>0.09284044061806709</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1527926662416195</v>
+        <v>0.1520195842046816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1083375615266677</v>
+        <v>0.107920925722622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2020278183967297</v>
+        <v>0.2008755272287873</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1337491702101988</v>
+        <v>0.1346742495084517</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1662882396439908</v>
+        <v>0.168273453832455</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1155521673315519</v>
+        <v>0.1155041922718397</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1141781634591459</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06975278666435697</v>
+        <v>0.06975278666435698</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1432686419444419</v>
@@ -870,7 +870,7 @@
         <v>0.1284417180652542</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0696701167822464</v>
+        <v>0.06967011678224641</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08923324832691532</v>
+        <v>0.08814753589205895</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05340614596922676</v>
+        <v>0.05486286702620657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1089512257519946</v>
+        <v>0.1111360635852113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0549991564527425</v>
+        <v>0.05610865919085724</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1062113618632624</v>
+        <v>0.1072532922986707</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05898610114100186</v>
+        <v>0.05939731280122589</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1455868708888266</v>
+        <v>0.1479878062366516</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08969095992225511</v>
+        <v>0.09094037859352112</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1786228444721659</v>
+        <v>0.1827208948134404</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08294790078009437</v>
+        <v>0.08345528287623276</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1517913835489841</v>
+        <v>0.1533510835140769</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08269349857396341</v>
+        <v>0.08179800221862066</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.1849654851682076</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1329747311843841</v>
+        <v>0.132974731184384</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2349448151990353</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1710524635674924</v>
+        <v>0.1716008352485656</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1221110960340765</v>
+        <v>0.1230512047507428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2195230118646011</v>
+        <v>0.2199449600631606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1622603729236012</v>
+        <v>0.162948558749583</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2010208260794056</v>
+        <v>0.1997930085739409</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1467681334687121</v>
+        <v>0.1456046020417996</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1984171552138365</v>
+        <v>0.1983072111001667</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1457618101336341</v>
+        <v>0.1451646977773091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2496008973124635</v>
+        <v>0.2512696595343056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1837032653176262</v>
+        <v>0.1838901732465734</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2207012774969948</v>
+        <v>0.2207109413384282</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1611512522951117</v>
+        <v>0.1615923662908565</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>274371</v>
+        <v>274266</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>129807</v>
+        <v>129904</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>372118</v>
+        <v>373156</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>185942</v>
+        <v>189420</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>666852</v>
+        <v>665591</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>332596</v>
+        <v>328959</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>335184</v>
+        <v>334167</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>172024</v>
+        <v>171520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>440182</v>
+        <v>439042</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>229513</v>
+        <v>229544</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>756680</v>
+        <v>764455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>390321</v>
+        <v>387935</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>131721</v>
+        <v>133272</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>128901</v>
+        <v>128241</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>190429</v>
+        <v>188373</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>221153</v>
+        <v>220335</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>336078</v>
+        <v>334554</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>360727</v>
+        <v>361904</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>177559</v>
+        <v>178361</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>170451</v>
+        <v>172759</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>243106</v>
+        <v>242329</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>265726</v>
+        <v>264271</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>404976</v>
+        <v>408717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>424021</v>
+        <v>425309</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>84936</v>
+        <v>85750</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>77804</v>
+        <v>76869</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>111457</v>
+        <v>111722</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>104721</v>
+        <v>105878</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>209858</v>
+        <v>207941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>192104</v>
+        <v>193738</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>125404</v>
+        <v>124770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>113019</v>
+        <v>112585</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>155532</v>
+        <v>154645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>139577</v>
+        <v>140542</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>264498</v>
+        <v>267656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>241132</v>
+        <v>241032</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>45027</v>
+        <v>44479</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52077</v>
+        <v>53497</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52888</v>
+        <v>53949</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>49889</v>
+        <v>50895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>105152</v>
+        <v>106184</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>111023</v>
+        <v>111797</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73463</v>
+        <v>74675</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87459</v>
+        <v>88677</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86709</v>
+        <v>88698</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75240</v>
+        <v>75701</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>150278</v>
+        <v>151822</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>155645</v>
+        <v>153959</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>573653</v>
+        <v>575492</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>424007</v>
+        <v>427272</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>770603</v>
+        <v>772085</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>596447</v>
+        <v>598977</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1379811</v>
+        <v>1371383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1049124</v>
+        <v>1040807</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>665425</v>
+        <v>665056</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>506130</v>
+        <v>504056</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>876188</v>
+        <v>882045</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>675269</v>
+        <v>675956</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1514898</v>
+        <v>1514964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1151937</v>
+        <v>1155090</v>
       </c>
     </row>
     <row r="24">
